--- a/data/evaluation/evaluation_Center_Summer_Cabbage.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Cabbage.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6037.589743589744</v>
+        <v>5956.820512820514</v>
       </c>
       <c r="C3" t="n">
-        <v>60814126.20376068</v>
+        <v>60721241.58837606</v>
       </c>
       <c r="D3" t="n">
-        <v>7798.341246942242</v>
+        <v>7792.383562708914</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.801688460662652</v>
+        <v>-0.7989366470601538</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5896.922879620381</v>
+        <v>6174.345877705628</v>
       </c>
       <c r="C4" t="n">
-        <v>54897026.16518219</v>
+        <v>59351243.40162361</v>
       </c>
       <c r="D4" t="n">
-        <v>7409.252739998966</v>
+        <v>7703.975817824431</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6263875638878802</v>
+        <v>-0.758348874477013</v>
       </c>
     </row>
     <row r="5">
